--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N2">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q2">
-        <v>0.1219994416106667</v>
+        <v>0.08532367212599999</v>
       </c>
       <c r="R2">
-        <v>1.097994974496</v>
+        <v>0.7679130491339999</v>
       </c>
       <c r="S2">
-        <v>0.000409937005680807</v>
+        <v>0.0002608433549801596</v>
       </c>
       <c r="T2">
-        <v>0.0004099370056808069</v>
+        <v>0.0002608433549801595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q3">
-        <v>1.010200715288</v>
+        <v>1.235736575766</v>
       </c>
       <c r="R3">
-        <v>9.091806437592</v>
+        <v>11.121629181894</v>
       </c>
       <c r="S3">
-        <v>0.00339443075225981</v>
+        <v>0.003777775455075327</v>
       </c>
       <c r="T3">
-        <v>0.00339443075225981</v>
+        <v>0.003777775455075326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H4">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I4">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J4">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N4">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O4">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P4">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q4">
-        <v>7.011494674861333</v>
+        <v>9.380128593527999</v>
       </c>
       <c r="R4">
-        <v>63.103452073752</v>
+        <v>84.42115734175199</v>
       </c>
       <c r="S4">
-        <v>0.02355970727744933</v>
+        <v>0.02867603036198429</v>
       </c>
       <c r="T4">
-        <v>0.02355970727744933</v>
+        <v>0.02867603036198429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H5">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I5">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J5">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N5">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O5">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P5">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q5">
-        <v>0.2104179216666666</v>
+        <v>0.07066092217799999</v>
       </c>
       <c r="R5">
-        <v>1.893761295</v>
+        <v>0.6359482996019998</v>
       </c>
       <c r="S5">
-        <v>0.0007070367832082782</v>
+        <v>0.0002160178007772947</v>
       </c>
       <c r="T5">
-        <v>0.0007070367832082782</v>
+        <v>0.0002160178007772947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N6">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q6">
-        <v>3.626404349546223</v>
+        <v>2.073336019419667</v>
       </c>
       <c r="R6">
-        <v>32.637639145916</v>
+        <v>18.660024174777</v>
       </c>
       <c r="S6">
-        <v>0.01218527987353392</v>
+        <v>0.006338404218093149</v>
       </c>
       <c r="T6">
-        <v>0.01218527987353391</v>
+        <v>0.006338404218093148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q7">
         <v>30.02797569783967</v>
@@ -883,10 +883,10 @@
         <v>270.251781280557</v>
       </c>
       <c r="S7">
-        <v>0.1008986457783277</v>
+        <v>0.09179865011811221</v>
       </c>
       <c r="T7">
-        <v>0.1008986457783277</v>
+        <v>0.09179865011811221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N8">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O8">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P8">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q8">
-        <v>208.4150095283241</v>
+        <v>227.9339132407507</v>
       </c>
       <c r="R8">
-        <v>1875.735085754917</v>
+        <v>2051.405219166756</v>
       </c>
       <c r="S8">
-        <v>0.7003066884324829</v>
+        <v>0.6968177196555135</v>
       </c>
       <c r="T8">
-        <v>0.7003066884324829</v>
+        <v>0.6968177196555135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.831823</v>
       </c>
       <c r="I9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N9">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O9">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P9">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q9">
-        <v>6.254622613680556</v>
+        <v>1.717036215936778</v>
       </c>
       <c r="R9">
-        <v>56.291603523125</v>
+        <v>15.453325943431</v>
       </c>
       <c r="S9">
-        <v>0.02101650001069753</v>
+        <v>0.005249158598401542</v>
       </c>
       <c r="T9">
-        <v>0.02101650001069753</v>
+        <v>0.005249158598401542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H10">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N10">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q10">
-        <v>0.5976813371791111</v>
+        <v>0.432349843622</v>
       </c>
       <c r="R10">
-        <v>5.379132034612</v>
+        <v>3.891148592598</v>
       </c>
       <c r="S10">
-        <v>0.002008301796137759</v>
+        <v>0.001321738515531432</v>
       </c>
       <c r="T10">
-        <v>0.002008301796137759</v>
+        <v>0.001321738515531432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H11">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q11">
-        <v>4.949023588644333</v>
+        <v>6.261691532702</v>
       </c>
       <c r="R11">
-        <v>44.541212297799</v>
+        <v>56.355223794318</v>
       </c>
       <c r="S11">
-        <v>0.01662948521885003</v>
+        <v>0.01914264337836837</v>
       </c>
       <c r="T11">
-        <v>0.01662948521885003</v>
+        <v>0.01914264337836837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H12">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N12">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O12">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P12">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q12">
-        <v>34.34966142114655</v>
+        <v>47.530738299416</v>
       </c>
       <c r="R12">
-        <v>309.146952790319</v>
+        <v>427.776644694744</v>
       </c>
       <c r="S12">
-        <v>0.1154201786764834</v>
+        <v>0.1453064188844923</v>
       </c>
       <c r="T12">
-        <v>0.1154201786764834</v>
+        <v>0.1453064188844923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H13">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N13">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O13">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P13">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q13">
-        <v>1.030847872152778</v>
+        <v>0.3580511467993334</v>
       </c>
       <c r="R13">
-        <v>9.277630849374999</v>
+        <v>3.222460321194</v>
       </c>
       <c r="S13">
-        <v>0.003463808394888536</v>
+        <v>0.001094599658670482</v>
       </c>
       <c r="T13">
-        <v>0.003463808394888536</v>
+        <v>0.001094599658670482</v>
       </c>
     </row>
   </sheetData>
